--- a/results/RIMP9_260213-1345/ReqPowDATA.xlsx
+++ b/results/RIMP9_260213-1345/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.97822168022816</v>
+        <v>43.66365539061633</v>
       </c>
       <c r="C2" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="D2" t="n">
-        <v>825.649940035496</v>
+        <v>852.2806944045979</v>
       </c>
       <c r="E2" t="n">
-        <v>859.5644336045631</v>
+        <v>873.2731078123264</v>
       </c>
       <c r="F2" t="n">
-        <v>859.5644336045631</v>
+        <v>873.2731078123264</v>
       </c>
       <c r="G2" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="H2" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="I2" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="J2" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="K2" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="L2" t="n">
-        <v>859.5644336045631</v>
+        <v>873.2731078123264</v>
       </c>
       <c r="M2" t="n">
-        <v>859.5644336045631</v>
+        <v>873.2731078123264</v>
       </c>
       <c r="N2" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="O2" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="P2" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="Q2" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="R2" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="S2" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="T2" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="U2" t="n">
-        <v>42.97822168022816</v>
+        <v>43.66365539061633</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.97822168022816</v>
+        <v>43.66365539061633</v>
       </c>
       <c r="C3" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="D3" t="n">
-        <v>656.4318135614847</v>
+        <v>678.7281881432198</v>
       </c>
       <c r="E3" t="n">
-        <v>690.3463071305517</v>
+        <v>699.7206015509483</v>
       </c>
       <c r="F3" t="n">
-        <v>690.3463071305517</v>
+        <v>699.7206015509483</v>
       </c>
       <c r="G3" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="H3" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="I3" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="J3" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="K3" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3463071305517</v>
+        <v>699.7206015509483</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3463071305517</v>
+        <v>699.7206015509483</v>
       </c>
       <c r="N3" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="O3" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="P3" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="Q3" t="n">
-        <v>946.2001897719107</v>
+        <v>950.3476073492096</v>
       </c>
       <c r="R3" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="S3" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="T3" t="n">
-        <v>85.95644336045632</v>
+        <v>87.32731078123265</v>
       </c>
       <c r="U3" t="n">
-        <v>42.97822168022816</v>
+        <v>43.66365539061633</v>
       </c>
     </row>
     <row r="4">
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>169.2181264740113</v>
+        <v>173.5525062613781</v>
       </c>
       <c r="E4" t="n">
-        <v>169.2181264740113</v>
+        <v>173.5525062613781</v>
       </c>
       <c r="F4" t="n">
-        <v>169.2181264740113</v>
+        <v>173.5525062613781</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>169.2181264740113</v>
+        <v>173.5525062613781</v>
       </c>
       <c r="M4" t="n">
-        <v>169.2181264740113</v>
+        <v>173.5525062613781</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
